--- a/00_Proc_de_Evaluacion/xlsx/Proc_de_Evaluacion_INTROPROG.xlsx
+++ b/00_Proc_de_Evaluacion/xlsx/Proc_de_Evaluacion_INTROPROG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DEP1" sheetId="1" state="visible" r:id="rId2"/>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">Lunes 13 de junio de 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Ejercicio de programación Student_type</t>
+    <t xml:space="preserve">Ejercicio de programación Student_type.</t>
   </si>
   <si>
     <t xml:space="preserve">Miércoles 15 de junio de 2022</t>
@@ -710,11 +710,11 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.72"/>
@@ -821,11 +821,11 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.44"/>
@@ -969,8 +969,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1045,7 +1045,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="297" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="295.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1082,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,7 +1144,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="270.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="268.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1195,8 +1195,8 @@
   </sheetPr>
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="B2:D17 G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="1" sqref="A1:E9 J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1367,8 +1367,8 @@
   </sheetPr>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="A1:E9 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1457,8 +1457,8 @@
   </sheetPr>
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="B2:D17 B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="1" sqref="A1:E9 E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1665,11 +1665,11 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A1:E9 E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="67.11"/>
   </cols>
@@ -1811,11 +1811,11 @@
   </sheetPr>
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A1:E9 D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.67"/>
@@ -1959,13 +1959,13 @@
   </sheetPr>
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.55"/>
   </cols>
